--- a/Notebooks and Test Datas/test isolation/professores.xlsx
+++ b/Notebooks and Test Datas/test isolation/professores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\Projeto Escola\teste1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\GitHub\Projetos-SEDUC\Notebooks and Test Datas\test isolation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978CA750-4A7F-41FE-A2F3-CD7F981B492E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F41D18-EE00-4B89-A2AB-A8A186ED8461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,9 +609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
